--- a/material/potext.xlsx
+++ b/material/potext.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_621DA07FF491C92D5CCF8BA6C1CD2E484C235C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24AAFFB-491C-49DC-9272-6AEDAB56A0D9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_621DA07FF491C92D5CCF8BA6C1CD2E484C235C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5898BD3D-8963-401E-9AA7-968DA7235688}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="334">
   <si>
     <t>Material</t>
   </si>
@@ -69,15 +69,6 @@
     <t>xx</t>
   </si>
   <si>
-    <t>Noun</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>PART</t>
-  </si>
-  <si>
     <t>550001195</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>PAC</t>
   </si>
   <si>
-    <t>FILTER</t>
-  </si>
-  <si>
     <t>550024502</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>RESIN</t>
-  </si>
-  <si>
     <t>550013892</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t> InertSustain, C18, 5µ, 150*4.6 mm P.N: 5020-07345</t>
   </si>
   <si>
-    <t>STAIN</t>
-  </si>
-  <si>
     <t>550014387</t>
   </si>
   <si>
@@ -219,844 +201,799 @@
     <t> Mouse TGF beta 1 ELISA Kit-  ab119557</t>
   </si>
   <si>
+    <t>550005141</t>
+  </si>
+  <si>
+    <t> Rotor Seal; Cat#228-52139</t>
+  </si>
+  <si>
+    <t>Â Rotor Seal; Cat#228-52139</t>
+  </si>
+  <si>
+    <t>550014454</t>
+  </si>
+  <si>
+    <t> WATER MOLECULAR BIOLOGY (1*500ml)</t>
+  </si>
+  <si>
+    <t> WATER MOLECULAR BIOLOGY (1*500ml) cat#VWRL0201-0500</t>
+  </si>
+  <si>
+    <t>550016387</t>
+  </si>
+  <si>
+    <t>VINAKUMA</t>
+  </si>
+  <si>
+    <t>"13mmRubber Stoppers # 19700004</t>
+  </si>
+  <si>
+    <t>'13mmRubber Stoppers # 19700004 ''</t>
+  </si>
+  <si>
+    <t>550022700</t>
+  </si>
+  <si>
+    <t>"2ml HPLC Sample Vials and Closures</t>
+  </si>
+  <si>
+    <t>'2ml HPLC Sample Vials and Closures (Combipack)-9mm screw top celar vials-10x100nos-Borosil</t>
+  </si>
+  <si>
+    <t>550017581</t>
+  </si>
+  <si>
+    <t>"5-Ethyl-2-(5-((4-(2-hydroxyethyl) piper</t>
+  </si>
+  <si>
+    <t>5-Ethyl-2-(5-((4-(2-hydroxyethyl) piperazin-1-yl) sulfonyl)-2- propoxyphenyl)-7-propyl-1,5-dihydro-4H-pyrrolo[3,2-d] pyrimidin-4-one dihydrochloride (MDF)</t>
+  </si>
+  <si>
+    <t>550021781</t>
+  </si>
+  <si>
+    <t>"96 Round Deep Well Plate,2.0mL</t>
+  </si>
+  <si>
+    <t>96 Round Deep Well Plate,2.0mL, U bottom, Sterile, Ind.Wrapped, 50 plates/case</t>
+  </si>
+  <si>
+    <t>550022539</t>
+  </si>
+  <si>
+    <t>"ACETEXL-179-0502U - ACEEXCEL 1.7 C18-AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ACETEXL-179-0502U - ACEEXCEL 1.7 C18-AR50X2.1MM 179-0502U</t>
+  </si>
+  <si>
+    <t>550022538</t>
+  </si>
+  <si>
+    <t>"ACETEXL-179-1002U - ACEEXCEL 1.7 C18-AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ACETEXL-179-1002U - ACEEXCEL 1.7 C18-AR100x2.1MM 1 * 1 items,Avantor 179-1002U''</t>
+  </si>
+  <si>
+    <t>550016497</t>
+  </si>
+  <si>
+    <t>"ACETONITRILE, CAT# BAKR9017-03</t>
+  </si>
+  <si>
+    <t>'ACETONITRILE, CAT# BAKR9017-03 ''</t>
+  </si>
+  <si>
+    <t>550016514</t>
+  </si>
+  <si>
+    <t>"Acetonitrile, CAT# BAKR9829-03 LCMS</t>
+  </si>
+  <si>
+    <t>'Acetonitrile, CAT# BAKR9829-03 LCMS ''</t>
+  </si>
+  <si>
+    <t>550018668</t>
+  </si>
+  <si>
+    <t>"ACQUITY UPLC BEH SHIELD RP18 COLUMN</t>
+  </si>
+  <si>
+    <t>'ACQUITY UPLC BEH SHIELD RP18 COLUMN,CAT# 186003376,130Å, 1.7 µM, 2.1 MM X 150 MM, 1/PKG ,WATERS X 150 MM, 1/PKG ,WATERS ''</t>
+  </si>
+  <si>
+    <t>550020405</t>
+  </si>
+  <si>
+    <t>HARSHISH</t>
+  </si>
+  <si>
+    <t>"Acrodisc® Syringe Filters with PVDF Mem</t>
+  </si>
+  <si>
+    <t>Acrodisc® Syringe Filters with PVDF Membrane - 25mmx 0.45 µm (50pkt)-4408T</t>
+  </si>
+  <si>
+    <t>550016288</t>
+  </si>
+  <si>
+    <t>"Agilent Eclipse XDB-C8, 3.5um, 4.6*150m</t>
+  </si>
+  <si>
+    <t>'Agilent Eclipse XDB-C8, 3.5um, 4.6*150mm cat# 963967-906 ''</t>
+  </si>
+  <si>
+    <t>550021642</t>
+  </si>
+  <si>
+    <t>"ANSELL AlphaTec 02100 Highly chemical-r</t>
+  </si>
+  <si>
+    <t>ANSELL AlphaTec 02100 Highly chemical-resistantgloves, AlphaTec 02100''</t>
+  </si>
+  <si>
+    <t>550021643</t>
+  </si>
+  <si>
+    <t>"ANSELL AlphaTec, 38520 hand gloves, Che</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ANSELL AlphaTec, 38520 hand gloves, Chemical-resistant butylgloves, AlphaTec, 38520''</t>
+  </si>
+  <si>
+    <t>550022705</t>
+  </si>
+  <si>
+    <t>"B1000-25Ml Beakers,Low Form</t>
+  </si>
+  <si>
+    <t>B1000-25Ml Beakers,Low Form,with Spout-Borosil</t>
+  </si>
+  <si>
+    <t>550022702</t>
+  </si>
+  <si>
+    <t>"B1501-3Ltr-Bottles(GL-45),Reagent</t>
+  </si>
+  <si>
+    <t>B1501-3Ltr-Bottles(GL-45),Reagent,With Screw Cap-Borosil</t>
+  </si>
+  <si>
+    <t>550022704</t>
+  </si>
+  <si>
+    <t>"B1501-5Ltr-Bottles(GL-45),Reagent</t>
+  </si>
+  <si>
+    <t>B1501-5Ltr-Bottles(GL-45),Reagent,With Screw Cap-Borosil</t>
+  </si>
+  <si>
+    <t>550022534</t>
+  </si>
+  <si>
+    <t>"Bangs-Quantumâ„¢ APC MESF-A - 1mL (20 t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bangs-Quantumâ„¢ APC MESF-A - 1mL (20 tests) SKU : 823''</t>
+  </si>
+  <si>
+    <t>550005142</t>
+  </si>
+  <si>
+    <t>"Biopsy Cassettes-A84210088 with lidsThe</t>
+  </si>
+  <si>
+    <t>'Biopsy Cassettes-A84210088 with lidsThermo Scientific</t>
+  </si>
+  <si>
+    <t>550017192</t>
+  </si>
+  <si>
+    <t>"BSA, CAT# 3117332001</t>
+  </si>
+  <si>
+    <t>'BSA, CAT# 3117332001 ''</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>550016285</t>
+  </si>
+  <si>
+    <t>"Capto-Butyl, CAT# 17545902</t>
+  </si>
+  <si>
+    <t>'Capto-Butyl, CAT# 17545902 ''</t>
+  </si>
+  <si>
+    <t>550016465</t>
+  </si>
+  <si>
+    <t>"Carrier Ampholytes solution (pH 5-8) ph</t>
+  </si>
+  <si>
+    <t>'Carrier Ampholytes solution (pH 5-8) pharmalyte, CAT# 17-0453-01 ''</t>
+  </si>
+  <si>
+    <t>550022569</t>
+  </si>
+  <si>
+    <t>"Cartridge  make Sciex</t>
+  </si>
+  <si>
+    <t>'Cartridge make Sciex Cat no-144738''</t>
+  </si>
+  <si>
+    <t>550016386</t>
+  </si>
+  <si>
+    <t>"Citric acid, monohydrate # 0115-01</t>
+  </si>
+  <si>
+    <t>'Citric acid, monohydrate # 0115-01 ''</t>
+  </si>
+  <si>
+    <t>550014880</t>
+  </si>
+  <si>
+    <t>"CLEAR GLASS 15x45mm (4ml/1 DRAM) HIGH R</t>
+  </si>
+  <si>
+    <t>CLEAR GLASS 15x45mm (4ml/1 DRAM) HIGH RECOVERY VIALS WITH 13-425 GPI THREAD FINISH.PT#: HR1545C-PermaBond28x15mm &amp;7mm-B</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>550023140</t>
+  </si>
+  <si>
+    <t>"Complement C5 Protein, Cynomolgus</t>
+  </si>
+  <si>
+    <t>Complement C5 Protein, Cynomolgus, Recombinant (His Tag) 1 mg Cat.No:90914-C08H2-1 mg</t>
+  </si>
+  <si>
+    <t>550004566</t>
+  </si>
+  <si>
+    <t>LAVAMA</t>
+  </si>
+  <si>
+    <t>"Diagnostic Bottles W/Closures, PETG,20m</t>
+  </si>
+  <si>
+    <t>'Diagnostic Bottles W/Closures, PETG,20ml CAT.NO:2035-0020</t>
+  </si>
+  <si>
+    <t>550016469</t>
+  </si>
+  <si>
+    <t>"Dialysis Tubing, 3.5K MWCO, 35 mm I.D.</t>
+  </si>
+  <si>
+    <t>'Dialysis Tubing, 3.5K MWCO, 35 mm I.D. CAT# 88244 ''</t>
+  </si>
+  <si>
+    <t>550021980</t>
+  </si>
+  <si>
+    <t>"Dimethyl sulfoxide PurSolv Plus,GC-Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''Dimethyl sulfoxide PurSolv Plus,GC-Headspace tested, â‰¥99.9% PSR36268-500ML''</t>
+  </si>
+  <si>
+    <t>550016396</t>
+  </si>
+  <si>
+    <t>"Disodium hydrogen phosphate dihydrate,</t>
+  </si>
+  <si>
+    <t>'Disodium hydrogen phosphate dihydrate, #1370369012 ''</t>
+  </si>
+  <si>
+    <t>550017188</t>
+  </si>
+  <si>
+    <t>"Dithiothreitol, CAT# R0862</t>
+  </si>
+  <si>
+    <t>'Dithiothreitol, CAT# R0862 ''</t>
+  </si>
+  <si>
+    <t>550016513</t>
+  </si>
+  <si>
+    <t>"EDTA Na .2H2O # 45808</t>
+  </si>
+  <si>
+    <t>'EDTA Na .2H2O # 45808 ''</t>
+  </si>
+  <si>
+    <t>550022006</t>
+  </si>
+  <si>
+    <t>"Eppendorf™ Combitips Advanced™ Pipetter</t>
+  </si>
+  <si>
+    <t>Eppendorf™ Combitips Advanced™ Pipetter Tips - Standard, Sterile(Cat- 13683715</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>550019721</t>
+  </si>
+  <si>
+    <t>"ER-GFP (Puro) Lentivirus in PBS 1x10^8</t>
+  </si>
+  <si>
+    <t>ER-GFP (Puro) Lentivirus in PBS 1x10^8 IFU/ml x 200 ul cat# LVP973-P_x0002_PBS</t>
+  </si>
+  <si>
+    <t>550019722</t>
+  </si>
+  <si>
+    <t>"ER-Luc (Puro) Lentivirus in PBS 1x10^8</t>
+  </si>
+  <si>
+    <t>ER-Luc (Puro) Lentivirus in PBS 1x10^8 IFU/ml x 200 ul cat# LVP975-P_x0002_PBS</t>
+  </si>
+  <si>
+    <t>550017777</t>
+  </si>
+  <si>
+    <t>"Ethanol (20 bottles / pack), CAT# 1170</t>
+  </si>
+  <si>
+    <t>'Ethanol (20 bottles / pack), CAT# 1170 UN ''</t>
+  </si>
+  <si>
+    <t>550016394</t>
+  </si>
+  <si>
+    <t>"Ethanol, #111WORLD200</t>
+  </si>
+  <si>
+    <t>'Ethanol, #111WORLD200 ''</t>
+  </si>
+  <si>
+    <t>550016274</t>
+  </si>
+  <si>
+    <t>"Formic Acid (FA), LCMS Grade, Pierce, C</t>
+  </si>
+  <si>
+    <t>'Formic Acid (FA), LCMS Grade, Pierce, CAT# 85178 ''</t>
+  </si>
+  <si>
+    <t>550025238</t>
+  </si>
+  <si>
+    <t>MADHKAK</t>
+  </si>
+  <si>
+    <t>"FOXP3 Antibody Size: 100ul</t>
+  </si>
+  <si>
+    <t>FOXP3 Antibody Size: 100ul Cat.No: HY-P80135</t>
+  </si>
+  <si>
+    <t>550025771</t>
+  </si>
+  <si>
+    <t>"G150 ,Pack Size:Size: 5mg</t>
+  </si>
+  <si>
+    <t>G150 ,Pack Size:Size: 5mg,Cat#HY-128583</t>
+  </si>
+  <si>
+    <t>550022696</t>
+  </si>
+  <si>
+    <t>"GC Column Cyclodex-B 30m,0.25µm</t>
+  </si>
+  <si>
+    <t>GC Column Cyclodex-B 30m,0.25µm-113-2532</t>
+  </si>
+  <si>
+    <t>550016257</t>
+  </si>
+  <si>
+    <t>PRAJKR</t>
+  </si>
+  <si>
+    <t>"GelCode Blue Safe Protein Stain, CAT# 1</t>
+  </si>
+  <si>
+    <t>'GelCode Blue Safe Protein Stain, CAT# 1860983 ''</t>
+  </si>
+  <si>
+    <t>550017189</t>
+  </si>
+  <si>
+    <t>"Glycine , CAT# AAJ1640736</t>
+  </si>
+  <si>
+    <t>'Glycine , CAT# AAJ1640736 ''</t>
+  </si>
+  <si>
+    <t>550022509</t>
+  </si>
+  <si>
+    <t>"Greiner Bio-One 384 Well Polypropylene</t>
+  </si>
+  <si>
+    <t>Greiner Bio-One 384 Well Polypropylene Flat Bottom Non-Sterile Microplates make:Grenier cat#781201</t>
+  </si>
+  <si>
+    <t>550021983</t>
+  </si>
+  <si>
+    <t>"Heptane PurSolv for GC, â‰¥99%   PSR407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''Heptane PurSolv for GC, â‰¥99% PSR40708-500ML''</t>
+  </si>
+  <si>
+    <t>550016700</t>
+  </si>
+  <si>
+    <t>"HPLC grade water, CAT# 270733-1L</t>
+  </si>
+  <si>
+    <t>'HPLC grade water, CAT# 270733-1L ''</t>
+  </si>
+  <si>
+    <t>550022744</t>
+  </si>
+  <si>
+    <t>"HR2-070 Slice pH (0.5 ml Deep Well bloc</t>
+  </si>
+  <si>
+    <t>'HR2-070 Slice pH (0.5 ml Deep Well block format),CAT: HR2-070 ''</t>
+  </si>
+  <si>
+    <t>550023275</t>
+  </si>
+  <si>
+    <t>"Human CA125/MUC16 Alexa Fluor 647 MAb</t>
+  </si>
+  <si>
+    <t>'Human CA125/MUC16 Alexa Fluor 647 MAb (Clone986808)-100µG, Cat#FAB5609R-100UG''</t>
+  </si>
+  <si>
+    <t>550018002</t>
+  </si>
+  <si>
+    <t>RACHANGA</t>
+  </si>
+  <si>
+    <t>"Human CD20 / MS4A1 Protein CAT# CD0-H52</t>
+  </si>
+  <si>
+    <t>'Human CD20 / MS4A1 Protein CAT# CD0-H52H3 ''</t>
+  </si>
+  <si>
+    <t>550021900</t>
+  </si>
+  <si>
+    <t>"Human Claudin-3 Phycoerythrin MAb (Clon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''Human Claudin-3 Phycoerythrin MAb (Clone 385021) (100 Tests) cat#FAB4620P make:R&amp;D Systems''</t>
+  </si>
+  <si>
+    <t>550023273</t>
+  </si>
+  <si>
+    <t>"Human Claudin-6 Alexa Fluor 488 Antbody</t>
+  </si>
+  <si>
+    <t>'Human Claudin-6 Alexa Fluor 488 Antbody (Clone342927) -100µG, Cat#FAB3656G-10 0UG''</t>
+  </si>
+  <si>
+    <t>550022254</t>
+  </si>
+  <si>
+    <t>"Human IgM (myeloma,Rockland (009-0107)</t>
+  </si>
+  <si>
+    <t>Human IgM (myeloma,Rockland (009-0107)</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>550012734</t>
+  </si>
+  <si>
+    <t>NANDAKUK</t>
+  </si>
+  <si>
+    <t>"Human/Mouse/Rat/Porcine/Canine TGF-beta</t>
+  </si>
+  <si>
+    <t>'Human/Mouse/Rat/Porcine/Canine TGF-beta 1 Quantikine ELISA'' Cat# SB100C</t>
+  </si>
+  <si>
+    <t>550016395</t>
+  </si>
+  <si>
+    <t>"Hydrochloric acid, #9544-02</t>
+  </si>
+  <si>
+    <t>'Hydrochloric acid, #9544-02 ''</t>
+  </si>
+  <si>
+    <t>550017778</t>
+  </si>
+  <si>
+    <t>"Hydrochloric acid, CAT# 07104-1L</t>
+  </si>
+  <si>
+    <t>'Hydrochloric acid, CAT# 07104-1L ''</t>
+  </si>
+  <si>
+    <t>550022418</t>
+  </si>
+  <si>
+    <t>"Hypersil Chiral IAT 250X30X5um,42905-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Hypersil Chiral IAT 250X30X5um,42905-259370A</t>
+  </si>
+  <si>
+    <t>550020209</t>
+  </si>
+  <si>
+    <t>"InertSustain C18 5um, 4.6 X 250mm</t>
+  </si>
+  <si>
+    <t>InertSustain C18 5um, 4.6 X 250mm, part number-5020-07346, LCGC</t>
+  </si>
+  <si>
+    <t>550016519</t>
+  </si>
+  <si>
+    <t>"Info: Research® plus, single-channel, f</t>
+  </si>
+  <si>
+    <t>'Info: Research® plus, single-channel, fixed, 1000µL, blue, CAT# 4.661 853 ''</t>
+  </si>
+  <si>
+    <t>550022387</t>
+  </si>
+  <si>
+    <t>"IsoPropanol LCMS Grade Make Fisher  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''IsoPropanol LCMS Grade Make Fisher A461''</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>550021982</t>
+  </si>
+  <si>
+    <t>"Isopropyl Alcohol PurSolv for GC, â‰¥99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''Isopropyl Alcohol PurSolv for GC, â‰¥99% PSR40853-500ML''</t>
+  </si>
+  <si>
+    <t>550016263</t>
+  </si>
+  <si>
+    <t>"KIMBLE 60965D-1 15*45mm 1 Dram Shell Vi</t>
+  </si>
+  <si>
+    <t>'KIMBLE 60965D-1 15*45mm 1 Dram Shell Vial w/Closure Opticlear, cat# 60965D-1 ''</t>
+  </si>
+  <si>
+    <t>550016393</t>
+  </si>
+  <si>
+    <t>"LB Broth, Lennox, CAT# 240230</t>
+  </si>
+  <si>
+    <t>'LB Broth, Lennox, CAT# 240230 ''</t>
+  </si>
+  <si>
+    <t>550021562</t>
+  </si>
+  <si>
+    <t>"LONG CUFF GLOVES POWDER FREE Size : Med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	LONG CUFF GLOVES POWDER FREE Size : Medium 18''</t>
+  </si>
+  <si>
+    <t>550017216</t>
+  </si>
+  <si>
+    <t>"Mabselect Sure LX, CAT# 17-5474-02</t>
+  </si>
+  <si>
+    <t>'Mabselect Sure LX, CAT# 17-5474-02 ''</t>
+  </si>
+  <si>
+    <t>550016466</t>
+  </si>
+  <si>
+    <t>"Maurice Sample vials 0.2ml, CAT# 046-08</t>
+  </si>
+  <si>
+    <t>'Maurice Sample vials 0.2ml, CAT# 046-083 ''</t>
+  </si>
+  <si>
+    <t>550026421</t>
+  </si>
+  <si>
+    <t>"Maxiamp 0.1Ml Low Profile Tube Strips -</t>
+  </si>
+  <si>
+    <t>'Maxiamp 0.1Ml Low Profile Tube Strips With Cap Clear Ultra Clear Cap (Pack Of 125 Nos)(Compatiable With Biorad Brand'' cat.no T611030</t>
+  </si>
+  <si>
+    <t>550020557</t>
+  </si>
+  <si>
+    <t>"MAXIAMP 0.2ML TUBE STRIPS WITH ATTACHED</t>
+  </si>
+  <si>
+    <t>'MAXIAMP 0.2ML TUBE STRIPS WITH ATTACHED CAP CLEAR ULTRA CLEAR CAP (PACK OF 120 NOS) Cat.No: T610080''</t>
+  </si>
+  <si>
+    <t>550016516</t>
+  </si>
+  <si>
+    <t>"Methanol, CAT# BAKR9093-68 HPLC</t>
+  </si>
+  <si>
+    <t>'Methanol, CAT# BAKR9093-68 HPLC ''</t>
+  </si>
+  <si>
+    <t>550016685</t>
+  </si>
+  <si>
+    <t>"Methanol, CAT# M0140</t>
+  </si>
+  <si>
+    <t>'Methanol, CAT# M0140 ''</t>
+  </si>
+  <si>
+    <t>550021866</t>
+  </si>
+  <si>
+    <t>"Mouse Monoclonal ErbB2/HER2 Antibody (H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''Mouse Monoclonal ErbB2/HER2 Antibody (HRB2/451) [PE] - 0.1ML - Cat.No:NBP2-33064PE NBP2-33064PE''</t>
+  </si>
+  <si>
+    <t>550021979</t>
+  </si>
+  <si>
+    <t>"N,N-Dimethylformamide PurSolv Plus ,GCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''N,N-Dimethylformamide PurSolv Plus ,GCHeadspace tested, â‰¥99.9% PSR36269-500ML ''</t>
+  </si>
+  <si>
+    <t>550021984</t>
+  </si>
+  <si>
+    <t>"N-Hexane PurSolv for GC   PSR41110-500M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''N-Hexane PurSolv for GC PSR41110-500ML ''</t>
+  </si>
+  <si>
+    <t>550021981</t>
+  </si>
+  <si>
+    <t>"N-Methyl-2-Pyrollidone PurSolv Plus ,GC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	''N-Methyl-2-Pyrollidone PurSolv Plus ,GCHeadspace tested, â‰¥99.9% PSR41586-500ML''</t>
+  </si>
+  <si>
+    <t>550016701</t>
+  </si>
+  <si>
+    <t>"NuPAGE Sample reducing agent 10X, CAT#</t>
+  </si>
+  <si>
+    <t>'NuPAGE Sample reducing agent 10X, CAT# NP0009 ''</t>
+  </si>
+  <si>
+    <t>550017772</t>
+  </si>
+  <si>
+    <t>"OglyZOR Lyophilized 2000 units, CAT# G2</t>
+  </si>
+  <si>
+    <t>'OglyZOR Lyophilized 2000 units, CAT# G2-OG1-020 ''</t>
+  </si>
+  <si>
+    <t>550016284</t>
+  </si>
+  <si>
+    <t>"Pellicon® XL50 with Ultracel® 100 kDa M</t>
+  </si>
+  <si>
+    <t>'Pellicon® XL50 with Ultracel® 100 kDa Membrane, C screen, 50 cm², CAT# PXC100C50 ''</t>
+  </si>
+  <si>
+    <t>550014620</t>
+  </si>
+  <si>
+    <t>"Phoenix Make, Moveable, 2ftx1ft ,30W LE</t>
+  </si>
+  <si>
+    <t>'Phoenix Make, Moveable, 2ftx1ft ,30W LED Monochromatic led ''</t>
+  </si>
+  <si>
+    <t>550013912</t>
+  </si>
+  <si>
+    <t>"Phytonadione Injectable Emulsion USP 1</t>
+  </si>
+  <si>
+    <t>Phytonadione Injectable Emulsion USP 1 mg/0.5 mL (Vitamin K1 Injection 1 mg/0.5 mL )</t>
+  </si>
+  <si>
+    <t>550003724</t>
+  </si>
+  <si>
+    <t>"Planova 20 N Integrity Kit cat.no:AGP-H</t>
+  </si>
+  <si>
+    <t>'Planova 20 N Integrity Kit cat.no:AGP-HA20(110 mL)-MFG:Asahi Kasei</t>
+  </si>
+  <si>
+    <t>550016275</t>
+  </si>
+  <si>
+    <t>"PNGase F, Recombinant, CAT# P0708L</t>
+  </si>
+  <si>
+    <t>'PNGase F, Recombinant, CAT# P0708L ''</t>
+  </si>
+  <si>
+    <t>550016397</t>
+  </si>
+  <si>
+    <t>"POTASSIUM DIHYDROGEN PHOSPHATE, #GRM118</t>
+  </si>
+  <si>
+    <t>'POTASSIUM DIHYDROGEN PHOSPHATE, #GRM1188 ''</t>
+  </si>
+  <si>
+    <t>550021580</t>
+  </si>
+  <si>
+    <t>"Protein A StandardsSet (A-G), 1mL/vial_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Protein A StandardsSet (A-G), 1mL/vial_Cygnus_F403''</t>
+  </si>
+  <si>
+    <t>550017193</t>
+  </si>
+  <si>
+    <t>"Rabbit IgG kit, CAT# 4001</t>
+  </si>
+  <si>
+    <t>'Rabbit IgG kit, CAT# 4001 ''</t>
+  </si>
+  <si>
     <t>KIT</t>
-  </si>
-  <si>
-    <t>550005141</t>
-  </si>
-  <si>
-    <t> Rotor Seal; Cat#228-52139</t>
-  </si>
-  <si>
-    <t>Â Rotor Seal; Cat#228-52139</t>
-  </si>
-  <si>
-    <t>SEAL</t>
-  </si>
-  <si>
-    <t>550014454</t>
-  </si>
-  <si>
-    <t> WATER MOLECULAR BIOLOGY (1*500ml)</t>
-  </si>
-  <si>
-    <t> WATER MOLECULAR BIOLOGY (1*500ml) cat#VWRL0201-0500</t>
-  </si>
-  <si>
-    <t>550016387</t>
-  </si>
-  <si>
-    <t>VINAKUMA</t>
-  </si>
-  <si>
-    <t>"13mmRubber Stoppers # 19700004</t>
-  </si>
-  <si>
-    <t>'13mmRubber Stoppers # 19700004 ''</t>
-  </si>
-  <si>
-    <t>550022700</t>
-  </si>
-  <si>
-    <t>"2ml HPLC Sample Vials and Closures</t>
-  </si>
-  <si>
-    <t>'2ml HPLC Sample Vials and Closures (Combipack)-9mm screw top celar vials-10x100nos-Borosil</t>
-  </si>
-  <si>
-    <t>VIAL</t>
-  </si>
-  <si>
-    <t>550017581</t>
-  </si>
-  <si>
-    <t>"5-Ethyl-2-(5-((4-(2-hydroxyethyl) piper</t>
-  </si>
-  <si>
-    <t>5-Ethyl-2-(5-((4-(2-hydroxyethyl) piperazin-1-yl) sulfonyl)-2- propoxyphenyl)-7-propyl-1,5-dihydro-4H-pyrrolo[3,2-d] pyrimidin-4-one dihydrochloride (MDF)</t>
-  </si>
-  <si>
-    <t>550021781</t>
-  </si>
-  <si>
-    <t>"96 Round Deep Well Plate,2.0mL</t>
-  </si>
-  <si>
-    <t>96 Round Deep Well Plate,2.0mL, U bottom, Sterile, Ind.Wrapped, 50 plates/case</t>
-  </si>
-  <si>
-    <t>PLATE</t>
-  </si>
-  <si>
-    <t>550022539</t>
-  </si>
-  <si>
-    <t>"ACETEXL-179-0502U - ACEEXCEL 1.7 C18-AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ACETEXL-179-0502U - ACEEXCEL 1.7 C18-AR50X2.1MM 179-0502U</t>
-  </si>
-  <si>
-    <t>550022538</t>
-  </si>
-  <si>
-    <t>"ACETEXL-179-1002U - ACEEXCEL 1.7 C18-AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ACETEXL-179-1002U - ACEEXCEL 1.7 C18-AR100x2.1MM 1 * 1 items,Avantor 179-1002U''</t>
-  </si>
-  <si>
-    <t>550016497</t>
-  </si>
-  <si>
-    <t>"ACETONITRILE, CAT# BAKR9017-03</t>
-  </si>
-  <si>
-    <t>'ACETONITRILE, CAT# BAKR9017-03 ''</t>
-  </si>
-  <si>
-    <t>550016514</t>
-  </si>
-  <si>
-    <t>"Acetonitrile, CAT# BAKR9829-03 LCMS</t>
-  </si>
-  <si>
-    <t>'Acetonitrile, CAT# BAKR9829-03 LCMS ''</t>
-  </si>
-  <si>
-    <t>550018668</t>
-  </si>
-  <si>
-    <t>"ACQUITY UPLC BEH SHIELD RP18 COLUMN</t>
-  </si>
-  <si>
-    <t>'ACQUITY UPLC BEH SHIELD RP18 COLUMN,CAT# 186003376,130Å, 1.7 µM, 2.1 MM X 150 MM, 1/PKG ,WATERS X 150 MM, 1/PKG ,WATERS ''</t>
-  </si>
-  <si>
-    <t>550020405</t>
-  </si>
-  <si>
-    <t>HARSHISH</t>
-  </si>
-  <si>
-    <t>"Acrodisc® Syringe Filters with PVDF Mem</t>
-  </si>
-  <si>
-    <t>Acrodisc® Syringe Filters with PVDF Membrane - 25mmx 0.45 µm (50pkt)-4408T</t>
-  </si>
-  <si>
-    <t>SYRINGE</t>
-  </si>
-  <si>
-    <t>550016288</t>
-  </si>
-  <si>
-    <t>"Agilent Eclipse XDB-C8, 3.5um, 4.6*150m</t>
-  </si>
-  <si>
-    <t>'Agilent Eclipse XDB-C8, 3.5um, 4.6*150mm cat# 963967-906 ''</t>
-  </si>
-  <si>
-    <t>550021642</t>
-  </si>
-  <si>
-    <t>"ANSELL AlphaTec 02100 Highly chemical-r</t>
-  </si>
-  <si>
-    <t>ANSELL AlphaTec 02100 Highly chemical-resistantgloves, AlphaTec 02100''</t>
-  </si>
-  <si>
-    <t>GLOVE</t>
-  </si>
-  <si>
-    <t>550021643</t>
-  </si>
-  <si>
-    <t>"ANSELL AlphaTec, 38520 hand gloves, Che</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ANSELL AlphaTec, 38520 hand gloves, Chemical-resistant butylgloves, AlphaTec, 38520''</t>
-  </si>
-  <si>
-    <t>550022705</t>
-  </si>
-  <si>
-    <t>"B1000-25Ml Beakers,Low Form</t>
-  </si>
-  <si>
-    <t>B1000-25Ml Beakers,Low Form,with Spout-Borosil</t>
-  </si>
-  <si>
-    <t>BEAKER</t>
-  </si>
-  <si>
-    <t>550022702</t>
-  </si>
-  <si>
-    <t>"B1501-3Ltr-Bottles(GL-45),Reagent</t>
-  </si>
-  <si>
-    <t>B1501-3Ltr-Bottles(GL-45),Reagent,With Screw Cap-Borosil</t>
-  </si>
-  <si>
-    <t>BOTTLE</t>
-  </si>
-  <si>
-    <t>550022704</t>
-  </si>
-  <si>
-    <t>"B1501-5Ltr-Bottles(GL-45),Reagent</t>
-  </si>
-  <si>
-    <t>B1501-5Ltr-Bottles(GL-45),Reagent,With Screw Cap-Borosil</t>
-  </si>
-  <si>
-    <t>550022534</t>
-  </si>
-  <si>
-    <t>"Bangs-Quantumâ„¢ APC MESF-A - 1mL (20 t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Bangs-Quantumâ„¢ APC MESF-A - 1mL (20 tests) SKU : 823''</t>
-  </si>
-  <si>
-    <t>550005142</t>
-  </si>
-  <si>
-    <t>"Biopsy Cassettes-A84210088 with lidsThe</t>
-  </si>
-  <si>
-    <t>'Biopsy Cassettes-A84210088 with lidsThermo Scientific</t>
-  </si>
-  <si>
-    <t>550017192</t>
-  </si>
-  <si>
-    <t>"BSA, CAT# 3117332001</t>
-  </si>
-  <si>
-    <t>'BSA, CAT# 3117332001 ''</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>550016285</t>
-  </si>
-  <si>
-    <t>"Capto-Butyl, CAT# 17545902</t>
-  </si>
-  <si>
-    <t>'Capto-Butyl, CAT# 17545902 ''</t>
-  </si>
-  <si>
-    <t>550016465</t>
-  </si>
-  <si>
-    <t>"Carrier Ampholytes solution (pH 5-8) ph</t>
-  </si>
-  <si>
-    <t>'Carrier Ampholytes solution (pH 5-8) pharmalyte, CAT# 17-0453-01 ''</t>
-  </si>
-  <si>
-    <t>SOLUTION</t>
-  </si>
-  <si>
-    <t>550022569</t>
-  </si>
-  <si>
-    <t>"Cartridge  make Sciex</t>
-  </si>
-  <si>
-    <t>'Cartridge make Sciex Cat no-144738''</t>
-  </si>
-  <si>
-    <t>550016386</t>
-  </si>
-  <si>
-    <t>"Citric acid, monohydrate # 0115-01</t>
-  </si>
-  <si>
-    <t>'Citric acid, monohydrate # 0115-01 ''</t>
-  </si>
-  <si>
-    <t>ACID</t>
-  </si>
-  <si>
-    <t>550014880</t>
-  </si>
-  <si>
-    <t>"CLEAR GLASS 15x45mm (4ml/1 DRAM) HIGH R</t>
-  </si>
-  <si>
-    <t>CLEAR GLASS 15x45mm (4ml/1 DRAM) HIGH RECOVERY VIALS WITH 13-425 GPI THREAD FINISH.PT#: HR1545C-PermaBond28x15mm &amp;7mm-B</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>550023140</t>
-  </si>
-  <si>
-    <t>"Complement C5 Protein, Cynomolgus</t>
-  </si>
-  <si>
-    <t>Complement C5 Protein, Cynomolgus, Recombinant (His Tag) 1 mg Cat.No:90914-C08H2-1 mg</t>
-  </si>
-  <si>
-    <t>PROTEIN</t>
-  </si>
-  <si>
-    <t>550004566</t>
-  </si>
-  <si>
-    <t>LAVAMA</t>
-  </si>
-  <si>
-    <t>"Diagnostic Bottles W/Closures, PETG,20m</t>
-  </si>
-  <si>
-    <t>'Diagnostic Bottles W/Closures, PETG,20ml CAT.NO:2035-0020</t>
-  </si>
-  <si>
-    <t>550016469</t>
-  </si>
-  <si>
-    <t>"Dialysis Tubing, 3.5K MWCO, 35 mm I.D.</t>
-  </si>
-  <si>
-    <t>'Dialysis Tubing, 3.5K MWCO, 35 mm I.D. CAT# 88244 ''</t>
-  </si>
-  <si>
-    <t>550021980</t>
-  </si>
-  <si>
-    <t>"Dimethyl sulfoxide PurSolv Plus,GC-Head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''Dimethyl sulfoxide PurSolv Plus,GC-Headspace tested, â‰¥99.9% PSR36268-500ML''</t>
-  </si>
-  <si>
-    <t>550016396</t>
-  </si>
-  <si>
-    <t>"Disodium hydrogen phosphate dihydrate,</t>
-  </si>
-  <si>
-    <t>'Disodium hydrogen phosphate dihydrate, #1370369012 ''</t>
-  </si>
-  <si>
-    <t>550017188</t>
-  </si>
-  <si>
-    <t>"Dithiothreitol, CAT# R0862</t>
-  </si>
-  <si>
-    <t>'Dithiothreitol, CAT# R0862 ''</t>
-  </si>
-  <si>
-    <t>550016513</t>
-  </si>
-  <si>
-    <t>"EDTA Na .2H2O # 45808</t>
-  </si>
-  <si>
-    <t>'EDTA Na .2H2O # 45808 ''</t>
-  </si>
-  <si>
-    <t>550022006</t>
-  </si>
-  <si>
-    <t>"Eppendorf™ Combitips Advanced™ Pipetter</t>
-  </si>
-  <si>
-    <t>Eppendorf™ Combitips Advanced™ Pipetter Tips - Standard, Sterile(Cat- 13683715</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Pipette</t>
-  </si>
-  <si>
-    <t>550019721</t>
-  </si>
-  <si>
-    <t>"ER-GFP (Puro) Lentivirus in PBS 1x10^8</t>
-  </si>
-  <si>
-    <t>ER-GFP (Puro) Lentivirus in PBS 1x10^8 IFU/ml x 200 ul cat# LVP973-P_x0002_PBS</t>
-  </si>
-  <si>
-    <t>550019722</t>
-  </si>
-  <si>
-    <t>"ER-Luc (Puro) Lentivirus in PBS 1x10^8</t>
-  </si>
-  <si>
-    <t>ER-Luc (Puro) Lentivirus in PBS 1x10^8 IFU/ml x 200 ul cat# LVP975-P_x0002_PBS</t>
-  </si>
-  <si>
-    <t>550017777</t>
-  </si>
-  <si>
-    <t>"Ethanol (20 bottles / pack), CAT# 1170</t>
-  </si>
-  <si>
-    <t>'Ethanol (20 bottles / pack), CAT# 1170 UN ''</t>
-  </si>
-  <si>
-    <t>ETHANOL</t>
-  </si>
-  <si>
-    <t>550016394</t>
-  </si>
-  <si>
-    <t>"Ethanol, #111WORLD200</t>
-  </si>
-  <si>
-    <t>'Ethanol, #111WORLD200 ''</t>
-  </si>
-  <si>
-    <t>550016274</t>
-  </si>
-  <si>
-    <t>"Formic Acid (FA), LCMS Grade, Pierce, C</t>
-  </si>
-  <si>
-    <t>'Formic Acid (FA), LCMS Grade, Pierce, CAT# 85178 ''</t>
-  </si>
-  <si>
-    <t>550025238</t>
-  </si>
-  <si>
-    <t>MADHKAK</t>
-  </si>
-  <si>
-    <t>"FOXP3 Antibody Size: 100ul</t>
-  </si>
-  <si>
-    <t>FOXP3 Antibody Size: 100ul Cat.No: HY-P80135</t>
-  </si>
-  <si>
-    <t>ANTIBODY</t>
-  </si>
-  <si>
-    <t>550025771</t>
-  </si>
-  <si>
-    <t>"G150 ,Pack Size:Size: 5mg</t>
-  </si>
-  <si>
-    <t>G150 ,Pack Size:Size: 5mg,Cat#HY-128583</t>
-  </si>
-  <si>
-    <t>550022696</t>
-  </si>
-  <si>
-    <t>"GC Column Cyclodex-B 30m,0.25µm</t>
-  </si>
-  <si>
-    <t>GC Column Cyclodex-B 30m,0.25µm-113-2532</t>
-  </si>
-  <si>
-    <t>550016257</t>
-  </si>
-  <si>
-    <t>PRAJKR</t>
-  </si>
-  <si>
-    <t>"GelCode Blue Safe Protein Stain, CAT# 1</t>
-  </si>
-  <si>
-    <t>'GelCode Blue Safe Protein Stain, CAT# 1860983 ''</t>
-  </si>
-  <si>
-    <t>550017189</t>
-  </si>
-  <si>
-    <t>"Glycine , CAT# AAJ1640736</t>
-  </si>
-  <si>
-    <t>'Glycine , CAT# AAJ1640736 ''</t>
-  </si>
-  <si>
-    <t>550022509</t>
-  </si>
-  <si>
-    <t>"Greiner Bio-One 384 Well Polypropylene</t>
-  </si>
-  <si>
-    <t>Greiner Bio-One 384 Well Polypropylene Flat Bottom Non-Sterile Microplates make:Grenier cat#781201</t>
-  </si>
-  <si>
-    <t>550021983</t>
-  </si>
-  <si>
-    <t>"Heptane PurSolv for GC, â‰¥99%   PSR407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''Heptane PurSolv for GC, â‰¥99% PSR40708-500ML''</t>
-  </si>
-  <si>
-    <t>550016700</t>
-  </si>
-  <si>
-    <t>"HPLC grade water, CAT# 270733-1L</t>
-  </si>
-  <si>
-    <t>'HPLC grade water, CAT# 270733-1L ''</t>
-  </si>
-  <si>
-    <t>550022744</t>
-  </si>
-  <si>
-    <t>"HR2-070 Slice pH (0.5 ml Deep Well bloc</t>
-  </si>
-  <si>
-    <t>'HR2-070 Slice pH (0.5 ml Deep Well block format),CAT: HR2-070 ''</t>
-  </si>
-  <si>
-    <t>550023275</t>
-  </si>
-  <si>
-    <t>"Human CA125/MUC16 Alexa Fluor 647 MAb</t>
-  </si>
-  <si>
-    <t>'Human CA125/MUC16 Alexa Fluor 647 MAb (Clone986808)-100µG, Cat#FAB5609R-100UG''</t>
-  </si>
-  <si>
-    <t>550018002</t>
-  </si>
-  <si>
-    <t>RACHANGA</t>
-  </si>
-  <si>
-    <t>"Human CD20 / MS4A1 Protein CAT# CD0-H52</t>
-  </si>
-  <si>
-    <t>'Human CD20 / MS4A1 Protein CAT# CD0-H52H3 ''</t>
-  </si>
-  <si>
-    <t>550021900</t>
-  </si>
-  <si>
-    <t>"Human Claudin-3 Phycoerythrin MAb (Clon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''Human Claudin-3 Phycoerythrin MAb (Clone 385021) (100 Tests) cat#FAB4620P make:R&amp;D Systems''</t>
-  </si>
-  <si>
-    <t>550023273</t>
-  </si>
-  <si>
-    <t>"Human Claudin-6 Alexa Fluor 488 Antbody</t>
-  </si>
-  <si>
-    <t>'Human Claudin-6 Alexa Fluor 488 Antbody (Clone342927) -100µG, Cat#FAB3656G-10 0UG''</t>
-  </si>
-  <si>
-    <t>550022254</t>
-  </si>
-  <si>
-    <t>"Human IgM (myeloma,Rockland (009-0107)</t>
-  </si>
-  <si>
-    <t>Human IgM (myeloma,Rockland (009-0107)</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>550012734</t>
-  </si>
-  <si>
-    <t>NANDAKUK</t>
-  </si>
-  <si>
-    <t>"Human/Mouse/Rat/Porcine/Canine TGF-beta</t>
-  </si>
-  <si>
-    <t>'Human/Mouse/Rat/Porcine/Canine TGF-beta 1 Quantikine ELISA'' Cat# SB100C</t>
-  </si>
-  <si>
-    <t>550016395</t>
-  </si>
-  <si>
-    <t>"Hydrochloric acid, #9544-02</t>
-  </si>
-  <si>
-    <t>'Hydrochloric acid, #9544-02 ''</t>
-  </si>
-  <si>
-    <t>550017778</t>
-  </si>
-  <si>
-    <t>"Hydrochloric acid, CAT# 07104-1L</t>
-  </si>
-  <si>
-    <t>'Hydrochloric acid, CAT# 07104-1L ''</t>
-  </si>
-  <si>
-    <t>550022418</t>
-  </si>
-  <si>
-    <t>"Hypersil Chiral IAT 250X30X5um,42905-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Hypersil Chiral IAT 250X30X5um,42905-259370A</t>
-  </si>
-  <si>
-    <t>550020209</t>
-  </si>
-  <si>
-    <t>"InertSustain C18 5um, 4.6 X 250mm</t>
-  </si>
-  <si>
-    <t>InertSustain C18 5um, 4.6 X 250mm, part number-5020-07346, LCGC</t>
-  </si>
-  <si>
-    <t>550016519</t>
-  </si>
-  <si>
-    <t>"Info: Research® plus, single-channel, f</t>
-  </si>
-  <si>
-    <t>'Info: Research® plus, single-channel, fixed, 1000µL, blue, CAT# 4.661 853 ''</t>
-  </si>
-  <si>
-    <t>550022387</t>
-  </si>
-  <si>
-    <t>"IsoPropanol LCMS Grade Make Fisher  "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''IsoPropanol LCMS Grade Make Fisher A461''</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>550021982</t>
-  </si>
-  <si>
-    <t>"Isopropyl Alcohol PurSolv for GC, â‰¥99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''Isopropyl Alcohol PurSolv for GC, â‰¥99% PSR40853-500ML''</t>
-  </si>
-  <si>
-    <t>550016263</t>
-  </si>
-  <si>
-    <t>"KIMBLE 60965D-1 15*45mm 1 Dram Shell Vi</t>
-  </si>
-  <si>
-    <t>'KIMBLE 60965D-1 15*45mm 1 Dram Shell Vial w/Closure Opticlear, cat# 60965D-1 ''</t>
-  </si>
-  <si>
-    <t>550016393</t>
-  </si>
-  <si>
-    <t>"LB Broth, Lennox, CAT# 240230</t>
-  </si>
-  <si>
-    <t>'LB Broth, Lennox, CAT# 240230 ''</t>
-  </si>
-  <si>
-    <t>550021562</t>
-  </si>
-  <si>
-    <t>"LONG CUFF GLOVES POWDER FREE Size : Med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	LONG CUFF GLOVES POWDER FREE Size : Medium 18''</t>
-  </si>
-  <si>
-    <t>550017216</t>
-  </si>
-  <si>
-    <t>"Mabselect Sure LX, CAT# 17-5474-02</t>
-  </si>
-  <si>
-    <t>'Mabselect Sure LX, CAT# 17-5474-02 ''</t>
-  </si>
-  <si>
-    <t>550016466</t>
-  </si>
-  <si>
-    <t>"Maurice Sample vials 0.2ml, CAT# 046-08</t>
-  </si>
-  <si>
-    <t>'Maurice Sample vials 0.2ml, CAT# 046-083 ''</t>
-  </si>
-  <si>
-    <t>550026421</t>
-  </si>
-  <si>
-    <t>"Maxiamp 0.1Ml Low Profile Tube Strips -</t>
-  </si>
-  <si>
-    <t>'Maxiamp 0.1Ml Low Profile Tube Strips With Cap Clear Ultra Clear Cap (Pack Of 125 Nos)(Compatiable With Biorad Brand'' cat.no T611030</t>
-  </si>
-  <si>
-    <t>TUBE</t>
-  </si>
-  <si>
-    <t>550020557</t>
-  </si>
-  <si>
-    <t>"MAXIAMP 0.2ML TUBE STRIPS WITH ATTACHED</t>
-  </si>
-  <si>
-    <t>'MAXIAMP 0.2ML TUBE STRIPS WITH ATTACHED CAP CLEAR ULTRA CLEAR CAP (PACK OF 120 NOS) Cat.No: T610080''</t>
-  </si>
-  <si>
-    <t>550016516</t>
-  </si>
-  <si>
-    <t>"Methanol, CAT# BAKR9093-68 HPLC</t>
-  </si>
-  <si>
-    <t>'Methanol, CAT# BAKR9093-68 HPLC ''</t>
-  </si>
-  <si>
-    <t>METHANOL</t>
-  </si>
-  <si>
-    <t>550016685</t>
-  </si>
-  <si>
-    <t>"Methanol, CAT# M0140</t>
-  </si>
-  <si>
-    <t>'Methanol, CAT# M0140 ''</t>
-  </si>
-  <si>
-    <t>550021866</t>
-  </si>
-  <si>
-    <t>"Mouse Monoclonal ErbB2/HER2 Antibody (H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''Mouse Monoclonal ErbB2/HER2 Antibody (HRB2/451) [PE] - 0.1ML - Cat.No:NBP2-33064PE NBP2-33064PE''</t>
-  </si>
-  <si>
-    <t>550021979</t>
-  </si>
-  <si>
-    <t>"N,N-Dimethylformamide PurSolv Plus ,GCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''N,N-Dimethylformamide PurSolv Plus ,GCHeadspace tested, â‰¥99.9% PSR36269-500ML ''</t>
-  </si>
-  <si>
-    <t>550021984</t>
-  </si>
-  <si>
-    <t>"N-Hexane PurSolv for GC   PSR41110-500M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''N-Hexane PurSolv for GC PSR41110-500ML ''</t>
-  </si>
-  <si>
-    <t>550021981</t>
-  </si>
-  <si>
-    <t>"N-Methyl-2-Pyrollidone PurSolv Plus ,GC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	''N-Methyl-2-Pyrollidone PurSolv Plus ,GCHeadspace tested, â‰¥99.9% PSR41586-500ML''</t>
-  </si>
-  <si>
-    <t>550016701</t>
-  </si>
-  <si>
-    <t>"NuPAGE Sample reducing agent 10X, CAT#</t>
-  </si>
-  <si>
-    <t>'NuPAGE Sample reducing agent 10X, CAT# NP0009 ''</t>
-  </si>
-  <si>
-    <t>550017772</t>
-  </si>
-  <si>
-    <t>"OglyZOR Lyophilized 2000 units, CAT# G2</t>
-  </si>
-  <si>
-    <t>'OglyZOR Lyophilized 2000 units, CAT# G2-OG1-020 ''</t>
-  </si>
-  <si>
-    <t>550016284</t>
-  </si>
-  <si>
-    <t>"Pellicon® XL50 with Ultracel® 100 kDa M</t>
-  </si>
-  <si>
-    <t>'Pellicon® XL50 with Ultracel® 100 kDa Membrane, C screen, 50 cm², CAT# PXC100C50 ''</t>
-  </si>
-  <si>
-    <t>550014620</t>
-  </si>
-  <si>
-    <t>"Phoenix Make, Moveable, 2ftx1ft ,30W LE</t>
-  </si>
-  <si>
-    <t>'Phoenix Make, Moveable, 2ftx1ft ,30W LED Monochromatic led ''</t>
-  </si>
-  <si>
-    <t>550013912</t>
-  </si>
-  <si>
-    <t>"Phytonadione Injectable Emulsion USP 1</t>
-  </si>
-  <si>
-    <t>Phytonadione Injectable Emulsion USP 1 mg/0.5 mL (Vitamin K1 Injection 1 mg/0.5 mL )</t>
-  </si>
-  <si>
-    <t>550003724</t>
-  </si>
-  <si>
-    <t>"Planova 20 N Integrity Kit cat.no:AGP-H</t>
-  </si>
-  <si>
-    <t>'Planova 20 N Integrity Kit cat.no:AGP-HA20(110 mL)-MFG:Asahi Kasei</t>
-  </si>
-  <si>
-    <t>550016275</t>
-  </si>
-  <si>
-    <t>"PNGase F, Recombinant, CAT# P0708L</t>
-  </si>
-  <si>
-    <t>'PNGase F, Recombinant, CAT# P0708L ''</t>
-  </si>
-  <si>
-    <t>550016397</t>
-  </si>
-  <si>
-    <t>"POTASSIUM DIHYDROGEN PHOSPHATE, #GRM118</t>
-  </si>
-  <si>
-    <t>'POTASSIUM DIHYDROGEN PHOSPHATE, #GRM1188 ''</t>
-  </si>
-  <si>
-    <t>550021580</t>
-  </si>
-  <si>
-    <t>"Protein A StandardsSet (A-G), 1mL/vial_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Protein A StandardsSet (A-G), 1mL/vial_Cygnus_F403''</t>
-  </si>
-  <si>
-    <t>550017193</t>
-  </si>
-  <si>
-    <t>"Rabbit IgG kit, CAT# 4001</t>
-  </si>
-  <si>
-    <t>'Rabbit IgG kit, CAT# 4001 ''</t>
   </si>
   <si>
     <t>550016391</t>
@@ -1436,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M1" sqref="M1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1456,12 +1393,9 @@
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="126.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1">
+    <row r="1" spans="1:12" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,4385 +1432,3867 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="5">
         <v>41795</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L65" si="0">COUNTIF($I$2:$I$16886,I2)</f>
         <v>1</v>
       </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="5">
         <v>44771</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" s="5">
         <v>44400</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N4"/>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1">
-      <c r="A5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="J5" s="5">
         <v>45582</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J6" s="5">
         <v>44782</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J7" s="5">
         <v>44771</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J8" s="5">
         <v>44713</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5">
         <v>45525</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M9"/>
-      <c r="N9" s="4" t="str">
-        <f>I9</f>
-        <v> HU IL-12P40 SIMPLEX 96 TESTS, Cat#EPX01A-12090-901</v>
-      </c>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
         <v>45162</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J11" s="5">
         <v>44771</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J12" s="5">
         <v>43664</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="4" t="str">
-        <f t="shared" ref="N12:N13" si="1">I12</f>
-        <v>Â Rotor Seal; Cat#228-52139</v>
-      </c>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J13" s="5">
         <v>44783</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M13"/>
-      <c r="N13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v> WATER MOLECULAR BIOLOGY (1*500ml) cat#VWRL0201-0500</v>
-      </c>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5">
         <v>45040</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J15" s="5">
         <v>45482</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="J16" s="5">
         <v>45103</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J17" s="5">
         <v>45428</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15" s="3" customFormat="1">
-      <c r="A18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" s="5">
         <v>45468</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J19" s="5">
         <v>45468</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J20" s="5">
         <v>45043</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M20"/>
-      <c r="N20" s="4" t="str">
-        <f t="shared" ref="N20:N22" si="2">I20</f>
-        <v>'ACETONITRILE, CAT# BAKR9017-03 ''</v>
-      </c>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J21" s="5">
         <v>45044</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M21"/>
-      <c r="N21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>'Acetonitrile, CAT# BAKR9829-03 LCMS ''</v>
-      </c>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J22" s="5">
         <v>45203</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M22"/>
-      <c r="N22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>'ACQUITY UPLC BEH SHIELD RP18 COLUMN,CAT# 186003376,130Å, 1.7 µM, 2.1 MM X 150 MM, 1/PKG ,WATERS X 150 MM, 1/PKG ,WATERS ''</v>
-      </c>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J23" s="5">
         <v>45331</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J24" s="5">
         <v>45030</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M24"/>
-      <c r="N24" s="4" t="str">
-        <f>I24</f>
-        <v>'Agilent Eclipse XDB-C8, 3.5um, 4.6*150mm cat# 963967-906 ''</v>
-      </c>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J25" s="5">
         <v>45419</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J26" s="5">
         <v>45419</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J27" s="5">
         <v>45482</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="28" spans="1:12" s="3" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J28" s="5">
         <v>45482</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J29" s="5">
         <v>45482</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J30" s="5">
         <v>45468</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="31" spans="1:12" s="3" customFormat="1">
       <c r="A31" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J31" s="5">
         <v>43664</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1">
       <c r="A32" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J32" s="5">
         <v>45076</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M32"/>
-      <c r="N32" s="4" t="str">
-        <f t="shared" ref="N32:N34" si="3">I32</f>
-        <v>'BSA, CAT# 3117332001 ''</v>
-      </c>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1">
       <c r="A33" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J33" s="5">
         <v>45029</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M33"/>
-      <c r="N33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>'Capto-Butyl, CAT# 17545902 ''</v>
-      </c>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="34" spans="1:12" s="3" customFormat="1">
       <c r="A34" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J34" s="5">
         <v>45042</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="3" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>142</v>
-      </c>
-      <c r="N34" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>'Carrier Ampholytes solution (pH 5-8) pharmalyte, CAT# 17-0453-01 ''</v>
-      </c>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15" s="3" customFormat="1">
-      <c r="A35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J35" s="5">
         <v>45471</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J36" s="5">
         <v>45040</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M36" t="s">
-        <v>149</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="37" spans="1:12" s="3" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J37" s="5">
         <v>44865</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M37" t="s">
-        <v>77</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1">
       <c r="A38" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J38" s="5">
         <v>45509</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="39" spans="1:12" s="3" customFormat="1">
       <c r="A39" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J39" s="5">
         <v>43395</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N39"/>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="40" spans="1:12" s="3" customFormat="1">
       <c r="A40" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="J40" s="5">
         <v>45042</v>
       </c>
       <c r="K40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="3" customFormat="1">
+      <c r="A41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M40"/>
-      <c r="N40" s="4" t="str">
-        <f>I40</f>
-        <v>'Dialysis Tubing, 3.5K MWCO, 35 mm I.D. CAT# 88244 ''</v>
-      </c>
-      <c r="O40"/>
-    </row>
-    <row r="41" spans="1:15" s="3" customFormat="1">
-      <c r="A41" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J41" s="5">
         <v>45439</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-    </row>
-    <row r="42" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="42" spans="1:12" s="3" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J42" s="5">
         <v>45040</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="43" spans="1:12" s="3" customFormat="1">
       <c r="A43" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J43" s="5">
         <v>45076</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M43"/>
-      <c r="N43" s="4" t="str">
-        <f>I43</f>
-        <v>'Dithiothreitol, CAT# R0862 ''</v>
-      </c>
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="44" spans="1:12" s="3" customFormat="1">
       <c r="A44" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J44" s="5">
         <v>45044</v>
       </c>
       <c r="K44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="3" customFormat="1">
+      <c r="A45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1">
-      <c r="A45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H45" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J45" s="5">
         <v>45439</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M45" t="s">
-        <v>181</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45"/>
-    </row>
-    <row r="46" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="46" spans="1:12" s="3" customFormat="1">
       <c r="A46" s="4" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J46" s="5">
         <v>45287</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M46"/>
-      <c r="N46" s="4" t="str">
-        <f t="shared" ref="N46:N48" si="4">I46</f>
-        <v>ER-GFP (Puro) Lentivirus in PBS 1x10^8 IFU/ml x 200 ul cat# LVP973-P_x0002_PBS</v>
-      </c>
-      <c r="O46"/>
-    </row>
-    <row r="47" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="47" spans="1:12" s="3" customFormat="1">
       <c r="A47" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="J47" s="5">
         <v>45287</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M47"/>
-      <c r="N47" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>ER-Luc (Puro) Lentivirus in PBS 1x10^8 IFU/ml x 200 ul cat# LVP975-P_x0002_PBS</v>
-      </c>
-      <c r="O47"/>
-    </row>
-    <row r="48" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="48" spans="1:12" s="3" customFormat="1">
       <c r="A48" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J48" s="5">
         <v>45119</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M48" t="s">
-        <v>191</v>
-      </c>
-      <c r="N48" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>'Ethanol (20 bottles / pack), CAT# 1170 UN ''</v>
-      </c>
-      <c r="O48"/>
-    </row>
-    <row r="49" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="49" spans="1:12" s="3" customFormat="1">
       <c r="A49" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J49" s="5">
         <v>45040</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M49" t="s">
-        <v>191</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
-    </row>
-    <row r="50" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="50" spans="1:12" s="3" customFormat="1">
       <c r="A50" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J50" s="5">
         <v>45029</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M50" t="s">
-        <v>149</v>
-      </c>
-      <c r="N50" s="4" t="str">
-        <f>I50</f>
-        <v>'Formic Acid (FA), LCMS Grade, Pierce, CAT# 85178 ''</v>
-      </c>
-      <c r="O50"/>
-    </row>
-    <row r="51" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="51" spans="1:12" s="3" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="J51" s="5">
         <v>45614</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51"/>
-    </row>
-    <row r="52" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="52" spans="1:12" s="3" customFormat="1">
       <c r="A52" s="4" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J52" s="5">
         <v>45638</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M52"/>
-      <c r="N52" s="4" t="str">
-        <f>I52</f>
-        <v>G150 ,Pack Size:Size: 5mg,Cat#HY-128583</v>
-      </c>
-      <c r="O52"/>
-    </row>
-    <row r="53" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="53" spans="1:12" s="3" customFormat="1">
       <c r="A53" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J53" s="5">
         <v>45481</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-    </row>
-    <row r="54" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="54" spans="1:12" s="3" customFormat="1">
       <c r="A54" s="4" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J54" s="5">
         <v>45027</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N54" s="4" t="str">
-        <f t="shared" ref="N54:N56" si="5">I54</f>
-        <v>'GelCode Blue Safe Protein Stain, CAT# 1860983 ''</v>
-      </c>
-      <c r="O54"/>
-    </row>
-    <row r="55" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="55" spans="1:12" s="3" customFormat="1">
       <c r="A55" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="J55" s="5">
         <v>45076</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M55"/>
-      <c r="N55" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>'Glycine , CAT# AAJ1640736 ''</v>
-      </c>
-      <c r="O55"/>
-    </row>
-    <row r="56" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="56" spans="1:12" s="3" customFormat="1">
       <c r="A56" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="J56" s="5">
         <v>45467</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N56" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Greiner Bio-One 384 Well Polypropylene Flat Bottom Non-Sterile Microplates make:Grenier cat#781201</v>
-      </c>
-      <c r="O56"/>
-    </row>
-    <row r="57" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="57" spans="1:12" s="3" customFormat="1">
       <c r="A57" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="J57" s="5">
         <v>45439</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-    </row>
-    <row r="58" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="58" spans="1:12" s="3" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="J58" s="5">
         <v>45058</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M58"/>
-      <c r="N58" s="4" t="str">
-        <f>I58</f>
-        <v>'HPLC grade water, CAT# 270733-1L ''</v>
-      </c>
-      <c r="O58"/>
-    </row>
-    <row r="59" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="59" spans="1:12" s="3" customFormat="1">
       <c r="A59" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J59" s="5">
         <v>45483</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-    </row>
-    <row r="60" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="60" spans="1:12" s="3" customFormat="1">
       <c r="A60" s="4" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J60" s="5">
         <v>45513</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M60"/>
-      <c r="N60" s="4" t="str">
-        <f t="shared" ref="N60:N63" si="6">I60</f>
-        <v>'Human CA125/MUC16 Alexa Fluor 647 MAb (Clone986808)-100µG, Cat#FAB5609R-100UG''</v>
-      </c>
-      <c r="O60"/>
-    </row>
-    <row r="61" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="61" spans="1:12" s="3" customFormat="1">
       <c r="A61" s="4" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="J61" s="5">
         <v>45131</v>
       </c>
       <c r="K61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="3" customFormat="1">
+      <c r="A62" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N61" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>'Human CD20 / MS4A1 Protein CAT# CD0-H52H3 ''</v>
-      </c>
-      <c r="O61"/>
-    </row>
-    <row r="62" spans="1:15" s="3" customFormat="1">
-      <c r="A62" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H62" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="J62" s="5">
         <v>45434</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M62"/>
-      <c r="N62" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">	''Human Claudin-3 Phycoerythrin MAb (Clone 385021) (100 Tests) cat#FAB4620P make:R&amp;D Systems''</v>
-      </c>
-      <c r="O62"/>
-    </row>
-    <row r="63" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="63" spans="1:12" s="3" customFormat="1">
       <c r="A63" s="4" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="J63" s="5">
         <v>45513</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M63"/>
-      <c r="N63" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>'Human Claudin-6 Alexa Fluor 488 Antbody (Clone342927) -100µG, Cat#FAB3656G-10 0UG''</v>
-      </c>
-      <c r="O63"/>
-    </row>
-    <row r="64" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="64" spans="1:12" s="3" customFormat="1">
       <c r="A64" s="4" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="J64" s="5">
         <v>45453</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-    </row>
-    <row r="65" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="65" spans="1:12" s="3" customFormat="1">
       <c r="A65" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G65" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="J65" s="5">
         <v>44539</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M65"/>
-      <c r="N65" s="4" t="str">
-        <f>I65</f>
-        <v>'Human/Mouse/Rat/Porcine/Canine TGF-beta 1 Quantikine ELISA'' Cat# SB100C</v>
-      </c>
-      <c r="O65"/>
-    </row>
-    <row r="66" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="66" spans="1:12" s="3" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="J66" s="5">
         <v>45040</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L100" si="7">COUNTIF($I$2:$I$16886,I66)</f>
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
-        <v>149</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66"/>
-    </row>
-    <row r="67" spans="1:15" s="3" customFormat="1">
+        <f t="shared" ref="L66:L100" si="1">COUNTIF($I$2:$I$16886,I66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="3" customFormat="1">
       <c r="A67" s="4" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="J67" s="5">
         <v>45119</v>
       </c>
       <c r="K67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="3" customFormat="1">
+      <c r="A68" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L67">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
-        <v>149</v>
-      </c>
-      <c r="N67" s="4" t="str">
-        <f>I67</f>
-        <v>'Hydrochloric acid, CAT# 07104-1L ''</v>
-      </c>
-      <c r="O67"/>
-    </row>
-    <row r="68" spans="1:15" s="3" customFormat="1">
-      <c r="A68" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J68" s="5">
         <v>45461</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L68">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-    </row>
-    <row r="69" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="3" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J69" s="5">
         <v>45316</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L69">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N69"/>
-      <c r="O69"/>
-    </row>
-    <row r="70" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="3" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="J70" s="5">
         <v>45044</v>
       </c>
       <c r="K70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="3" customFormat="1">
+      <c r="A71" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M70"/>
-      <c r="N70" s="4" t="str">
-        <f>I70</f>
-        <v>'Info: Research® plus, single-channel, fixed, 1000µL, blue, CAT# 4.661 853 ''</v>
-      </c>
-      <c r="O70"/>
-    </row>
-    <row r="71" spans="1:15" s="3" customFormat="1">
-      <c r="A71" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="J71" s="5">
         <v>45460</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="L71">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-    </row>
-    <row r="72" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="3" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J72" s="5">
         <v>45439</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L72">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-    </row>
-    <row r="73" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="3" customFormat="1">
       <c r="A73" s="4" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J73" s="5">
         <v>45028</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L73">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
-        <v>77</v>
-      </c>
-      <c r="N73" s="4" t="str">
-        <f t="shared" ref="N73:N74" si="8">I73</f>
-        <v>'KIMBLE 60965D-1 15*45mm 1 Dram Shell Vial w/Closure Opticlear, cat# 60965D-1 ''</v>
-      </c>
-      <c r="O73"/>
-    </row>
-    <row r="74" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="3" customFormat="1">
       <c r="A74" s="4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="J74" s="5">
         <v>45040</v>
       </c>
       <c r="K74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="3" customFormat="1">
+      <c r="A75" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M74"/>
-      <c r="N74" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>'LB Broth, Lennox, CAT# 240230 ''</v>
-      </c>
-      <c r="O74"/>
-    </row>
-    <row r="75" spans="1:15" s="3" customFormat="1">
-      <c r="A75" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H75" s="4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="J75" s="5">
         <v>45415</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L75">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N75"/>
-      <c r="O75"/>
-    </row>
-    <row r="76" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="3" customFormat="1">
       <c r="A76" s="4" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="J76" s="5">
         <v>45078</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L76">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M76"/>
-      <c r="N76" s="4" t="str">
-        <f t="shared" ref="N76:N77" si="9">I76</f>
-        <v>'Mabselect Sure LX, CAT# 17-5474-02 ''</v>
-      </c>
-      <c r="O76"/>
-    </row>
-    <row r="77" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="3" customFormat="1">
       <c r="A77" s="4" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="J77" s="5">
         <v>45042</v>
       </c>
       <c r="K77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="3" customFormat="1">
+      <c r="A78" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L77">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
-        <v>77</v>
-      </c>
-      <c r="N77" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>'Maurice Sample vials 0.2ml, CAT# 046-083 ''</v>
-      </c>
-      <c r="O77"/>
-    </row>
-    <row r="78" spans="1:15" s="3" customFormat="1">
-      <c r="A78" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H78" s="4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="J78" s="5">
         <v>45681</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L78">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M78" t="s">
-        <v>289</v>
-      </c>
-      <c r="N78"/>
-      <c r="O78"/>
-    </row>
-    <row r="79" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="3" customFormat="1">
       <c r="A79" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="J79" s="5">
         <v>45344</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L79">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M79" t="s">
-        <v>289</v>
-      </c>
-      <c r="N79"/>
-      <c r="O79"/>
-    </row>
-    <row r="80" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="3" customFormat="1">
       <c r="A80" s="4" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J80" s="5">
         <v>45044</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L80">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M80" t="s">
-        <v>296</v>
-      </c>
-      <c r="N80" s="4" t="str">
-        <f t="shared" ref="N80:N81" si="10">I80</f>
-        <v>'Methanol, CAT# BAKR9093-68 HPLC ''</v>
-      </c>
-      <c r="O80"/>
-    </row>
-    <row r="81" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="3" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="J81" s="5">
         <v>45057</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="L81">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M81" t="s">
-        <v>296</v>
-      </c>
-      <c r="N81" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>'Methanol, CAT# M0140 ''</v>
-      </c>
-      <c r="O81"/>
-    </row>
-    <row r="82" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="3" customFormat="1">
       <c r="A82" s="4" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="J82" s="5">
         <v>45433</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L82">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
-    </row>
-    <row r="83" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="3" customFormat="1">
       <c r="A83" s="4" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="J83" s="5">
         <v>45439</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L83">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-    </row>
-    <row r="84" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="3" customFormat="1">
       <c r="A84" s="4" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="J84" s="5">
         <v>45439</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L84">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-    </row>
-    <row r="85" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="3" customFormat="1">
       <c r="A85" s="4" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="J85" s="5">
         <v>45439</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L85">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-    </row>
-    <row r="86" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="3" customFormat="1">
       <c r="A86" s="4" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="J86" s="5">
         <v>45058</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L86">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M86"/>
-      <c r="N86" s="4" t="str">
-        <f t="shared" ref="N86:N88" si="11">I86</f>
-        <v>'NuPAGE Sample reducing agent 10X, CAT# NP0009 ''</v>
-      </c>
-      <c r="O86"/>
-    </row>
-    <row r="87" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="3" customFormat="1">
       <c r="A87" s="4" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="J87" s="5">
         <v>45119</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L87">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M87"/>
-      <c r="N87" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>'OglyZOR Lyophilized 2000 units, CAT# G2-OG1-020 ''</v>
-      </c>
-      <c r="O87"/>
-    </row>
-    <row r="88" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="3" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="J88" s="5">
         <v>45029</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L88">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M88"/>
-      <c r="N88" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>'Pellicon® XL50 with Ultracel® 100 kDa Membrane, C screen, 50 cm², CAT# PXC100C50 ''</v>
-      </c>
-      <c r="O88"/>
-    </row>
-    <row r="89" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="3" customFormat="1">
       <c r="A89" s="4" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="J89" s="5">
         <v>44820</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L89">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-    </row>
-    <row r="90" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="3" customFormat="1">
       <c r="A90" s="4" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="J90" s="5">
         <v>44722</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L90">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-    </row>
-    <row r="91" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="3" customFormat="1">
       <c r="A91" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="J91" s="5">
         <v>42810</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L91">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
-    </row>
-    <row r="92" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="3" customFormat="1">
       <c r="A92" s="4" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J92" s="5">
         <v>45029</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L92">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M92"/>
-      <c r="N92" s="4" t="str">
-        <f>I92</f>
-        <v>'PNGase F, Recombinant, CAT# P0708L ''</v>
-      </c>
-      <c r="O92"/>
-    </row>
-    <row r="93" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="3" customFormat="1">
       <c r="A93" s="4" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="J93" s="5">
         <v>45040</v>
       </c>
       <c r="K93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="3" customFormat="1">
+      <c r="A94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L93">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-    </row>
-    <row r="94" spans="1:15" s="3" customFormat="1">
-      <c r="A94" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H94" s="4" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="J94" s="5">
         <v>45415</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L94">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M94" t="s">
-        <v>77</v>
-      </c>
-      <c r="N94"/>
-      <c r="O94"/>
-    </row>
-    <row r="95" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="3" customFormat="1">
       <c r="A95" s="4" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="J95" s="5">
         <v>45076</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="L95">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N95" s="4" t="str">
-        <f>I95</f>
-        <v>'Rabbit IgG kit, CAT# 4001 ''</v>
-      </c>
-      <c r="O95"/>
-    </row>
-    <row r="96" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="3" customFormat="1">
       <c r="A96" s="4" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="J96" s="5">
         <v>45040</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L96">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M96" t="s">
-        <v>33</v>
-      </c>
-      <c r="N96"/>
-      <c r="O96"/>
-    </row>
-    <row r="97" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="3" customFormat="1">
       <c r="A97" s="4" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="J97" s="5">
         <v>44771</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L97">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-    </row>
-    <row r="98" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="3" customFormat="1">
       <c r="A98" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="J98" s="5">
         <v>45044</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L98">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M98"/>
-      <c r="N98" s="4" t="str">
-        <f t="shared" ref="N98:N100" si="12">I98</f>
-        <v>'Research® plus, single-channel, fixed, 10µL, yellow, CAT# 4.661 843 '''' ''</v>
-      </c>
-      <c r="O98"/>
-    </row>
-    <row r="99" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="3" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="J99" s="5">
         <v>45044</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L99">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M99"/>
-      <c r="N99" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>'Research® plus, single-channel, fixed, 100µL, yellow, CAT# 4.661 848 ''</v>
-      </c>
-      <c r="O99"/>
-    </row>
-    <row r="100" spans="1:15" s="3" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="3" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="J100" s="5">
         <v>45044</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M100"/>
-      <c r="N100" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>'Research® plus, single-channel, fixed, 200µL, yellow, CAT# 4.661 849 ''</v>
-      </c>
-      <c r="O100"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5884,6 +5300,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
@@ -5892,15 +5317,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6099,11 +5515,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA183A-7244-41D4-BA52-C9B7B4A1EFE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CF301D-6D0D-4A53-93AA-C7195BEF28A5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CF301D-6D0D-4A53-93AA-C7195BEF28A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA183A-7244-41D4-BA52-C9B7B4A1EFE0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/material/potext.xlsx
+++ b/material/potext.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_621DA07FF491C92D5CCF8BA6C1CD2E484C235C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5898BD3D-8963-401E-9AA7-968DA7235688}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biocon.sharepoint.com/sites/DataManagementOffice/Shared Documents/Data Management Office/Data Cleansing/Python/Scripts/Code/material/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_621DA07FF491C92D5CCF8BA6C1CD2E484C235C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEAC3F2-AEBA-48B4-8F69-964C21D493DE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$100</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1039,7 +1047,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,11 +1383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
+      <selection activeCell="C88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1388,14 +1396,14 @@
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="140.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1468,11 +1476,11 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L65" si="0">COUNTIF($I$2:$I$16886,I2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1507,11 +1515,11 @@
         <v>20</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1546,11 +1554,11 @@
         <v>29</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1585,11 +1593,11 @@
         <v>20</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1624,11 +1632,11 @@
         <v>38</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -1663,11 +1671,11 @@
         <v>42</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1702,11 +1710,11 @@
         <v>42</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -1741,11 +1749,11 @@
         <v>20</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1780,11 +1788,11 @@
         <v>20</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
@@ -1819,11 +1827,11 @@
         <v>20</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -1858,11 +1866,11 @@
         <v>20</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -1897,11 +1905,11 @@
         <v>20</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -1936,11 +1944,11 @@
         <v>29</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
@@ -1975,11 +1983,11 @@
         <v>20</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
@@ -2014,11 +2022,11 @@
         <v>42</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
@@ -2053,11 +2061,11 @@
         <v>29</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -2092,11 +2100,11 @@
         <v>20</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
@@ -2131,11 +2139,11 @@
         <v>20</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>81</v>
       </c>
@@ -2170,11 +2178,11 @@
         <v>29</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -2209,11 +2217,11 @@
         <v>29</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -2248,11 +2256,11 @@
         <v>20</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -2287,11 +2295,11 @@
         <v>29</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -2326,11 +2334,11 @@
         <v>20</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
@@ -2365,11 +2373,11 @@
         <v>20</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
@@ -2404,11 +2412,11 @@
         <v>20</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>103</v>
       </c>
@@ -2443,11 +2451,11 @@
         <v>20</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2482,11 +2490,11 @@
         <v>20</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>109</v>
       </c>
@@ -2521,11 +2529,11 @@
         <v>20</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>112</v>
       </c>
@@ -2560,11 +2568,11 @@
         <v>20</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>115</v>
       </c>
@@ -2599,11 +2607,11 @@
         <v>20</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>118</v>
       </c>
@@ -2638,11 +2646,11 @@
         <v>121</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -2677,11 +2685,11 @@
         <v>20</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>125</v>
       </c>
@@ -2716,11 +2724,11 @@
         <v>29</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -2755,11 +2763,11 @@
         <v>20</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -2794,11 +2802,11 @@
         <v>29</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -2833,11 +2841,11 @@
         <v>137</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>138</v>
       </c>
@@ -2872,11 +2880,11 @@
         <v>20</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>141</v>
       </c>
@@ -2911,11 +2919,11 @@
         <v>20</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>145</v>
       </c>
@@ -2950,11 +2958,11 @@
         <v>29</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>148</v>
       </c>
@@ -2989,11 +2997,11 @@
         <v>20</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>151</v>
       </c>
@@ -3028,11 +3036,11 @@
         <v>29</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>154</v>
       </c>
@@ -3067,11 +3075,11 @@
         <v>121</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>157</v>
       </c>
@@ -3106,11 +3114,11 @@
         <v>29</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>160</v>
       </c>
@@ -3145,11 +3153,11 @@
         <v>163</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>164</v>
       </c>
@@ -3184,11 +3192,11 @@
         <v>20</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>167</v>
       </c>
@@ -3223,11 +3231,11 @@
         <v>20</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>170</v>
       </c>
@@ -3262,11 +3270,11 @@
         <v>29</v>
       </c>
       <c r="L48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>173</v>
       </c>
@@ -3301,11 +3309,11 @@
         <v>29</v>
       </c>
       <c r="L49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>176</v>
       </c>
@@ -3340,11 +3348,11 @@
         <v>20</v>
       </c>
       <c r="L50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>179</v>
       </c>
@@ -3379,11 +3387,11 @@
         <v>20</v>
       </c>
       <c r="L51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>183</v>
       </c>
@@ -3418,11 +3426,11 @@
         <v>20</v>
       </c>
       <c r="L52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>186</v>
       </c>
@@ -3457,11 +3465,11 @@
         <v>20</v>
       </c>
       <c r="L53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>189</v>
       </c>
@@ -3496,11 +3504,11 @@
         <v>20</v>
       </c>
       <c r="L54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>193</v>
       </c>
@@ -3535,11 +3543,11 @@
         <v>121</v>
       </c>
       <c r="L55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>196</v>
       </c>
@@ -3574,11 +3582,11 @@
         <v>20</v>
       </c>
       <c r="L56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>199</v>
       </c>
@@ -3613,11 +3621,11 @@
         <v>20</v>
       </c>
       <c r="L57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>202</v>
       </c>
@@ -3652,11 +3660,11 @@
         <v>121</v>
       </c>
       <c r="L58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>205</v>
       </c>
@@ -3691,11 +3699,11 @@
         <v>20</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>208</v>
       </c>
@@ -3730,11 +3738,11 @@
         <v>20</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>211</v>
       </c>
@@ -3769,11 +3777,11 @@
         <v>29</v>
       </c>
       <c r="L61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>215</v>
       </c>
@@ -3808,11 +3816,11 @@
         <v>20</v>
       </c>
       <c r="L62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I62)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>218</v>
       </c>
@@ -3847,11 +3855,11 @@
         <v>20</v>
       </c>
       <c r="L63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>221</v>
       </c>
@@ -3886,11 +3894,11 @@
         <v>224</v>
       </c>
       <c r="L64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>225</v>
       </c>
@@ -3925,11 +3933,11 @@
         <v>20</v>
       </c>
       <c r="L65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
@@ -3964,11 +3972,11 @@
         <v>29</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L100" si="1">COUNTIF($I$2:$I$16886,I66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>232</v>
       </c>
@@ -4003,11 +4011,11 @@
         <v>29</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>235</v>
       </c>
@@ -4042,11 +4050,11 @@
         <v>20</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>238</v>
       </c>
@@ -4081,11 +4089,11 @@
         <v>20</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>241</v>
       </c>
@@ -4120,11 +4128,11 @@
         <v>29</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>244</v>
       </c>
@@ -4159,11 +4167,11 @@
         <v>247</v>
       </c>
       <c r="L71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>248</v>
       </c>
@@ -4198,11 +4206,11 @@
         <v>20</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>251</v>
       </c>
@@ -4237,11 +4245,11 @@
         <v>29</v>
       </c>
       <c r="L73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>254</v>
       </c>
@@ -4276,11 +4284,11 @@
         <v>29</v>
       </c>
       <c r="L74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>257</v>
       </c>
@@ -4315,11 +4323,11 @@
         <v>20</v>
       </c>
       <c r="L75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>260</v>
       </c>
@@ -4354,11 +4362,11 @@
         <v>29</v>
       </c>
       <c r="L76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>263</v>
       </c>
@@ -4393,11 +4401,11 @@
         <v>29</v>
       </c>
       <c r="L77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>266</v>
       </c>
@@ -4432,11 +4440,11 @@
         <v>29</v>
       </c>
       <c r="L78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>269</v>
       </c>
@@ -4471,11 +4479,11 @@
         <v>20</v>
       </c>
       <c r="L79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>272</v>
       </c>
@@ -4510,11 +4518,11 @@
         <v>29</v>
       </c>
       <c r="L80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>275</v>
       </c>
@@ -4549,11 +4557,11 @@
         <v>247</v>
       </c>
       <c r="L81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>278</v>
       </c>
@@ -4588,11 +4596,11 @@
         <v>20</v>
       </c>
       <c r="L82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>281</v>
       </c>
@@ -4627,11 +4635,11 @@
         <v>20</v>
       </c>
       <c r="L83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>284</v>
       </c>
@@ -4666,11 +4674,11 @@
         <v>20</v>
       </c>
       <c r="L84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>287</v>
       </c>
@@ -4705,11 +4713,11 @@
         <v>20</v>
       </c>
       <c r="L85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>290</v>
       </c>
@@ -4744,11 +4752,11 @@
         <v>121</v>
       </c>
       <c r="L86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>293</v>
       </c>
@@ -4783,11 +4791,11 @@
         <v>29</v>
       </c>
       <c r="L87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>296</v>
       </c>
@@ -4822,11 +4830,11 @@
         <v>20</v>
       </c>
       <c r="L88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>299</v>
       </c>
@@ -4861,11 +4869,11 @@
         <v>20</v>
       </c>
       <c r="L89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>302</v>
       </c>
@@ -4900,11 +4908,11 @@
         <v>20</v>
       </c>
       <c r="L90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I90)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>305</v>
       </c>
@@ -4939,11 +4947,11 @@
         <v>38</v>
       </c>
       <c r="L91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I91)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>308</v>
       </c>
@@ -4978,11 +4986,11 @@
         <v>20</v>
       </c>
       <c r="L92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>311</v>
       </c>
@@ -5017,11 +5025,11 @@
         <v>29</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I93)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>314</v>
       </c>
@@ -5056,11 +5064,11 @@
         <v>20</v>
       </c>
       <c r="L94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>317</v>
       </c>
@@ -5095,11 +5103,11 @@
         <v>320</v>
       </c>
       <c r="L95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I95)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>321</v>
       </c>
@@ -5134,11 +5142,11 @@
         <v>29</v>
       </c>
       <c r="L96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I96)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>324</v>
       </c>
@@ -5173,11 +5181,11 @@
         <v>20</v>
       </c>
       <c r="L97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>327</v>
       </c>
@@ -5212,11 +5220,11 @@
         <v>29</v>
       </c>
       <c r="L98">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I98)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>330</v>
       </c>
@@ -5251,11 +5259,11 @@
         <v>29</v>
       </c>
       <c r="L99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="3" customFormat="1">
+        <f>COUNTIF($I$2:$I$16886,I99)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>332</v>
       </c>
@@ -5290,11 +5298,16 @@
         <v>29</v>
       </c>
       <c r="L100">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($I$2:$I$16886,I100)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L100" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L100">
+      <sortCondition ref="H1:H100"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5309,17 +5322,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f76b0799-e2f7-4936-ad37-6b693d23f604">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea32c86f466abe0e73487f21b288dc11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43b4e9f170aba3ea30c55bd0541d73b" ns2:_="" ns3:_="">
     <xsd:import namespace="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
@@ -5514,14 +5516,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f76b0799-e2f7-4936-ad37-6b693d23f604">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CF301D-6D0D-4A53-93AA-C7195BEF28A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CF301D-6D0D-4A53-93AA-C7195BEF28A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA183A-7244-41D4-BA52-C9B7B4A1EFE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE3E5A8B-C294-4FBE-8524-48BC3EBA3199}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
+    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE3E5A8B-C294-4FBE-8524-48BC3EBA3199}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA183A-7244-41D4-BA52-C9B7B4A1EFE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
+    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/material/potext.xlsx
+++ b/material/potext.xlsx
@@ -5322,8 +5322,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea32c86f466abe0e73487f21b288dc11">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43b4e9f170aba3ea30c55bd0541d73b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6477665bf9a2a8472856ca531ac1b9c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e7bcfed897bc0eb12544d3fb556e05c" ns2:_="" ns3:_="">
     <xsd:import namespace="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
     <xsd:import namespace="420f222d-d251-4793-a8fe-c42970fccb6f"/>
     <xsd:element name="properties">
@@ -5342,6 +5342,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5399,6 +5400,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5536,22 +5542,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE3E5A8B-C294-4FBE-8524-48BC3EBA3199}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
-    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3FBFE0-481C-4576-87A5-90C2556A0C85}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
